--- a/src/database/Showtime.xlsx
+++ b/src/database/Showtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/Desktop/SC2002_Assignment/src/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB5D420-BAB6-594B-B5F2-79306DCC9105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558B7AF-3F58-3C43-9E9A-78B66BDC0343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="14500" windowHeight="16500" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="21760" windowHeight="16500" xr2:uid="{C9ABD031-C07D-D846-8439-F9FAA3B0C49F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,12 +438,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -456,7 +457,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -474,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>44896</v>
+        <v>10122022</v>
       </c>
       <c r="E2">
         <v>1200</v>
@@ -491,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>44897</v>
+        <v>11122022</v>
       </c>
       <c r="E3">
         <v>1300</v>
@@ -508,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>44898</v>
+        <v>12122022</v>
       </c>
       <c r="E4">
         <v>1500</v>
@@ -525,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>44901</v>
+        <v>13122022</v>
       </c>
       <c r="E5">
         <v>1300</v>
@@ -542,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>44905</v>
+        <v>14122022</v>
       </c>
       <c r="E6">
         <v>1230</v>
@@ -559,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>44914</v>
+        <v>15122022</v>
       </c>
       <c r="E7">
         <v>1300</v>

--- a/src/database/Showtime.xlsx
+++ b/src/database/Showtime.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/Desktop/SC2002_Assignment/src/database/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>movie</t>
   </si>
@@ -75,12 +75,22 @@
   </si>
   <si>
     <t>Tampines</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>22122022</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -435,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA69B54E-1050-4942-9338-6C6E0043CE56}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -443,100 +453,100 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="4" max="4" customWidth="true" style="2" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>10122022</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>11122022</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>1300</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>12122022</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>13122022</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>1300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -545,25 +555,42 @@
       <c r="D6" s="2">
         <v>14122022</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>1230</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>15122022</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>1300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/database/Showtime.xlsx
+++ b/src/database/Showtime.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>movie</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11122022</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1450</t>
   </si>
 </sst>
 </file>
@@ -492,8 +507,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="0">
-        <v>2</v>
+      <c r="A3" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>11</v>
@@ -501,11 +516,11 @@
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>11122022</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1300</v>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/src/database/Showtime.xlsx
+++ b/src/database/Showtime.xlsx
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA69B54E-1050-4942-9338-6C6E0043CE56}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -591,23 +591,6 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
